--- a/data_in/data_raw_manually_extracted/human_entered/S_147.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{122646C5-328B-EE42-912C-2B1D1C4442BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F216F893-CBC4-41DD-AF12-EFDA861EAE88}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{122646C5-328B-EE42-912C-2B1D1C4442BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8350260D-531E-45A5-93DB-85A63C55CC45}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="576">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -1762,13 +1763,16 @@
   </si>
   <si>
     <t>Environmental Rule of Law: First Global Report. See p. 5, Introduction, Table: "Countries with national environmental framework laws". https://www.unenvironment.org/resources/assessment/environmental-rule-law-first-global-report</t>
-  </si>
-  <si>
-    <t>2 = Yes; 1 = No; 0 = No data</t>
   </si>
   <si>
     <t>Source: Environmental Law Institute, based on research conducted using FAOLEX, ECOLEX; and other databases.
 Note: This map shows countries with national environmental framework laws and does not include countries with national sectoral legal instruments (e.g., water act or forest code)</t>
+  </si>
+  <si>
+    <t>2 = Yes; 1 = No</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2301,37 +2305,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView topLeftCell="R181" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R195" sqref="R195"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2439,7 +2443,7 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="15.95">
+    <row r="2" spans="1:36" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.95">
+    <row r="3" spans="1:36" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
@@ -2513,7 +2517,7 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.95">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
@@ -2524,16 +2528,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.95">
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.95">
+    <row r="6" spans="1:36" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.95">
+    <row r="7" spans="1:36" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.95">
+    <row r="8" spans="1:36" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.95">
+    <row r="9" spans="1:36" ht="15.6">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.95">
+    <row r="10" spans="1:36" ht="15.6">
       <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.95">
+    <row r="11" spans="1:36" ht="15.6">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.95">
+    <row r="12" spans="1:36" ht="15.6">
       <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.95">
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
@@ -2704,16 +2708,16 @@
         <v>2019</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.95">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="9" t="s">
         <v>63</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.95">
+    <row r="15" spans="1:36" ht="15.6">
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.95">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
@@ -2764,16 +2768,16 @@
         <v>2019</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.95">
+    <row r="17" spans="1:20" ht="15.6">
       <c r="A17" s="9" t="s">
         <v>69</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.95">
+    <row r="18" spans="1:20" ht="15.6">
       <c r="A18" s="9" t="s">
         <v>71</v>
       </c>
@@ -2804,16 +2808,16 @@
         <v>2019</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.95">
+    <row r="19" spans="1:20" ht="15.6">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.95">
+    <row r="20" spans="1:20" ht="15.6">
       <c r="A20" s="9" t="s">
         <v>75</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.95">
+    <row r="21" spans="1:20" ht="15.6">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.95">
+    <row r="22" spans="1:20" ht="15.6">
       <c r="A22" s="9" t="s">
         <v>79</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.95">
+    <row r="23" spans="1:20" ht="15.6">
       <c r="A23" s="9" t="s">
         <v>81</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.95">
+    <row r="24" spans="1:20" ht="15.6">
       <c r="A24" s="9" t="s">
         <v>83</v>
       </c>
@@ -2924,16 +2928,16 @@
         <v>2019</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.95">
+    <row r="25" spans="1:20" ht="15.6">
       <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.95">
+    <row r="26" spans="1:20" ht="15.6">
       <c r="A26" s="9" t="s">
         <v>87</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.95">
+    <row r="27" spans="1:20" ht="15.6">
       <c r="A27" s="9" t="s">
         <v>89</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.95">
+    <row r="28" spans="1:20" ht="15.6">
       <c r="A28" s="9" t="s">
         <v>91</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.95">
+    <row r="29" spans="1:20" ht="15.6">
       <c r="A29" s="9" t="s">
         <v>93</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.95">
+    <row r="30" spans="1:20" ht="15.6">
       <c r="A30" s="9" t="s">
         <v>95</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.95">
+    <row r="31" spans="1:20" ht="15.6">
       <c r="A31" s="9" t="s">
         <v>97</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.95">
+    <row r="32" spans="1:20" ht="15.6">
       <c r="A32" s="9" t="s">
         <v>99</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.95">
+    <row r="33" spans="1:20" ht="15.6">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.95">
+    <row r="34" spans="1:20" ht="15.6">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.95">
+    <row r="35" spans="1:20" ht="15.6">
       <c r="A35" s="9" t="s">
         <v>105</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.95">
+    <row r="36" spans="1:20" ht="15.6">
       <c r="A36" s="9" t="s">
         <v>107</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.95">
+    <row r="37" spans="1:20" ht="15.6">
       <c r="A37" s="9" t="s">
         <v>109</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.95">
+    <row r="38" spans="1:20" ht="15.6">
       <c r="A38" s="9" t="s">
         <v>111</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.95">
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.95">
+    <row r="40" spans="1:20" ht="15.6">
       <c r="A40" s="9" t="s">
         <v>115</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.95">
+    <row r="41" spans="1:20" ht="15.6">
       <c r="A41" s="9" t="s">
         <v>117</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.95">
+    <row r="42" spans="1:20" ht="15.6">
       <c r="A42" s="9" t="s">
         <v>119</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.95">
+    <row r="43" spans="1:20" ht="15.6">
       <c r="A43" s="9" t="s">
         <v>121</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.95">
+    <row r="44" spans="1:20" ht="15.6">
       <c r="A44" s="9" t="s">
         <v>123</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.95">
+    <row r="45" spans="1:20" ht="15.6">
       <c r="A45" s="9" t="s">
         <v>125</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.95">
+    <row r="46" spans="1:20" ht="15.6">
       <c r="A46" s="9" t="s">
         <v>127</v>
       </c>
@@ -3364,16 +3368,16 @@
         <v>2019</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T46" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.95">
+    <row r="47" spans="1:20" ht="15.6">
       <c r="A47" s="9" t="s">
         <v>129</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.95">
+    <row r="48" spans="1:20" ht="15.6">
       <c r="A48" s="9" t="s">
         <v>131</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.95">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="9" t="s">
         <v>133</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.95">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="9" t="s">
         <v>135</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.95">
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="9" t="s">
         <v>137</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.95">
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="9" t="s">
         <v>139</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.95">
+    <row r="53" spans="1:20" ht="15.6">
       <c r="A53" s="9" t="s">
         <v>141</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.95">
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.95">
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="9" t="s">
         <v>145</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.95">
+    <row r="56" spans="1:20" ht="15.6">
       <c r="A56" s="9" t="s">
         <v>147</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.95">
+    <row r="57" spans="1:20" ht="15.6">
       <c r="A57" s="9" t="s">
         <v>149</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95">
+    <row r="58" spans="1:20" ht="15.6">
       <c r="A58" s="9" t="s">
         <v>151</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.95">
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="9" t="s">
         <v>153</v>
       </c>
@@ -3633,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.95">
+    <row r="60" spans="1:20" ht="15.6">
       <c r="A60" s="9" t="s">
         <v>155</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.95">
+    <row r="61" spans="1:20" ht="15.6">
       <c r="A61" s="9" t="s">
         <v>157</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.95">
+    <row r="62" spans="1:20" ht="15.6">
       <c r="A62" s="9" t="s">
         <v>159</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.95">
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="9" t="s">
         <v>161</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.95">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="9" t="s">
         <v>163</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.95">
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="9" t="s">
         <v>165</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.95">
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="9" t="s">
         <v>167</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.95">
+    <row r="67" spans="1:20" ht="15.6">
       <c r="A67" s="9" t="s">
         <v>169</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.95">
+    <row r="68" spans="1:20" ht="15.6">
       <c r="A68" s="9" t="s">
         <v>171</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.95">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="9" t="s">
         <v>173</v>
       </c>
@@ -3824,16 +3828,16 @@
         <v>2019</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T69" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.95">
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="9" t="s">
         <v>175</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.95">
+    <row r="71" spans="1:20" ht="15.6">
       <c r="A71" s="9" t="s">
         <v>177</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.95">
+    <row r="72" spans="1:20" ht="15.6">
       <c r="A72" s="9" t="s">
         <v>179</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.95">
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="9" t="s">
         <v>181</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.95">
+    <row r="74" spans="1:20" ht="15.6">
       <c r="A74" s="9" t="s">
         <v>183</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.95">
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="9" t="s">
         <v>185</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.95">
+    <row r="76" spans="1:20" ht="15.6">
       <c r="A76" s="9" t="s">
         <v>187</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.95">
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="9" t="s">
         <v>189</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.95">
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="9" t="s">
         <v>191</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.95">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="9" t="s">
         <v>193</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.95">
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="9" t="s">
         <v>195</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.95">
+    <row r="81" spans="1:20" ht="15.6">
       <c r="A81" s="9" t="s">
         <v>197</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.95">
+    <row r="82" spans="1:20" ht="15.6">
       <c r="A82" s="9" t="s">
         <v>199</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.95">
+    <row r="83" spans="1:20" ht="15.6">
       <c r="A83" s="9" t="s">
         <v>201</v>
       </c>
@@ -4104,16 +4108,16 @@
         <v>2019</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T83" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.95">
+    <row r="84" spans="1:20" ht="15.6">
       <c r="A84" s="9" t="s">
         <v>203</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.95">
+    <row r="85" spans="1:20" ht="15.6">
       <c r="A85" s="9" t="s">
         <v>205</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.95">
+    <row r="86" spans="1:20" ht="15.6">
       <c r="A86" s="9" t="s">
         <v>207</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.95">
+    <row r="87" spans="1:20" ht="15.6">
       <c r="A87" s="9" t="s">
         <v>209</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.95">
+    <row r="88" spans="1:20" ht="15.6">
       <c r="A88" s="9" t="s">
         <v>211</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.95">
+    <row r="89" spans="1:20" ht="15.6">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.95">
+    <row r="90" spans="1:20" ht="15.6">
       <c r="A90" s="9" t="s">
         <v>215</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.95">
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="9" t="s">
         <v>217</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.95">
+    <row r="92" spans="1:20" ht="15.6">
       <c r="A92" s="9" t="s">
         <v>219</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.95">
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="9" t="s">
         <v>221</v>
       </c>
@@ -4304,16 +4308,16 @@
         <v>2019</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S93" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T93" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.95">
+    <row r="94" spans="1:20" ht="15.6">
       <c r="A94" s="9" t="s">
         <v>223</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.95">
+    <row r="95" spans="1:20" ht="15.6">
       <c r="A95" s="9" t="s">
         <v>225</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.95">
+    <row r="96" spans="1:20" ht="15.6">
       <c r="A96" s="9" t="s">
         <v>227</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.95">
+    <row r="97" spans="1:20" ht="15.6">
       <c r="A97" s="9" t="s">
         <v>229</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.95">
+    <row r="98" spans="1:20" ht="15.6">
       <c r="A98" s="9" t="s">
         <v>231</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.95">
+    <row r="99" spans="1:20" ht="15.6">
       <c r="A99" s="9" t="s">
         <v>233</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.95">
+    <row r="100" spans="1:20" ht="15.6">
       <c r="A100" s="9" t="s">
         <v>235</v>
       </c>
@@ -4453,7 +4457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.95">
+    <row r="101" spans="1:20" ht="15.6">
       <c r="A101" s="9" t="s">
         <v>237</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.95">
+    <row r="102" spans="1:20" ht="15.6">
       <c r="A102" s="9" t="s">
         <v>239</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.95">
+    <row r="103" spans="1:20" ht="15.6">
       <c r="A103" s="9" t="s">
         <v>241</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.95">
+    <row r="104" spans="1:20" ht="15.6">
       <c r="A104" s="9" t="s">
         <v>243</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.95">
+    <row r="105" spans="1:20" ht="15.6">
       <c r="A105" s="9" t="s">
         <v>245</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.95">
+    <row r="106" spans="1:20" ht="15.6">
       <c r="A106" s="9" t="s">
         <v>247</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.95">
+    <row r="107" spans="1:20" ht="15.6">
       <c r="A107" s="9" t="s">
         <v>249</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.95">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="9" t="s">
         <v>251</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.95">
+    <row r="109" spans="1:20" ht="15.6">
       <c r="A109" s="9" t="s">
         <v>253</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.95">
+    <row r="110" spans="1:20" ht="15.6">
       <c r="A110" s="9" t="s">
         <v>255</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.95">
+    <row r="111" spans="1:20" ht="15.6">
       <c r="A111" s="9" t="s">
         <v>257</v>
       </c>
@@ -4673,7 +4677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.95">
+    <row r="112" spans="1:20" ht="15.6">
       <c r="A112" s="9" t="s">
         <v>259</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.95">
+    <row r="113" spans="1:20" ht="15.6">
       <c r="A113" s="9" t="s">
         <v>261</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.95">
+    <row r="114" spans="1:20" ht="15.6">
       <c r="A114" s="9" t="s">
         <v>263</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.95">
+    <row r="115" spans="1:20" ht="15.6">
       <c r="A115" s="9" t="s">
         <v>265</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.95">
+    <row r="116" spans="1:20" ht="15.6">
       <c r="A116" s="9" t="s">
         <v>267</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.95">
+    <row r="117" spans="1:20" ht="15.6">
       <c r="A117" s="9" t="s">
         <v>269</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.95">
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="9" t="s">
         <v>271</v>
       </c>
@@ -4804,16 +4808,16 @@
         <v>2019</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S118" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T118" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.95">
+    <row r="119" spans="1:20" ht="15.6">
       <c r="A119" s="9" t="s">
         <v>273</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.95">
+    <row r="120" spans="1:20" ht="15.6">
       <c r="A120" s="9" t="s">
         <v>275</v>
       </c>
@@ -4853,7 +4857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.95">
+    <row r="121" spans="1:20" ht="15.6">
       <c r="A121" s="9" t="s">
         <v>277</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.95">
+    <row r="122" spans="1:20" ht="15.6">
       <c r="A122" s="9" t="s">
         <v>279</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.95">
+    <row r="123" spans="1:20" ht="15.6">
       <c r="A123" s="9" t="s">
         <v>281</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.95">
+    <row r="124" spans="1:20" ht="15.6">
       <c r="A124" s="9" t="s">
         <v>283</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.95">
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="9" t="s">
         <v>285</v>
       </c>
@@ -4944,16 +4948,16 @@
         <v>2019</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S125" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T125" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.95">
+    <row r="126" spans="1:20" ht="15.6">
       <c r="A126" s="9" t="s">
         <v>287</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.95">
+    <row r="127" spans="1:20" ht="15.6">
       <c r="A127" s="9" t="s">
         <v>289</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.95">
+    <row r="128" spans="1:20" ht="15.6">
       <c r="A128" s="9" t="s">
         <v>291</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.95">
+    <row r="129" spans="1:20" ht="15.6">
       <c r="A129" s="9" t="s">
         <v>293</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.95">
+    <row r="130" spans="1:20" ht="15.6">
       <c r="A130" s="9" t="s">
         <v>295</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.95">
+    <row r="131" spans="1:20" ht="15.6">
       <c r="A131" s="9" t="s">
         <v>297</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.95">
+    <row r="132" spans="1:20" ht="15.6">
       <c r="A132" s="9" t="s">
         <v>299</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.95">
+    <row r="133" spans="1:20" ht="15.6">
       <c r="A133" s="9" t="s">
         <v>302</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.95">
+    <row r="134" spans="1:20" ht="15.6">
       <c r="A134" s="9" t="s">
         <v>304</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.95">
+    <row r="135" spans="1:20" ht="15.6">
       <c r="A135" s="9" t="s">
         <v>306</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.95">
+    <row r="136" spans="1:20" ht="15.6">
       <c r="A136" s="9" t="s">
         <v>308</v>
       </c>
@@ -5164,16 +5168,16 @@
         <v>2019</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S136" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T136" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.95">
+    <row r="137" spans="1:20" ht="15.6">
       <c r="A137" s="9" t="s">
         <v>310</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15.95">
+    <row r="138" spans="1:20" ht="15.6">
       <c r="A138" s="9" t="s">
         <v>312</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.95">
+    <row r="139" spans="1:20" ht="15.6">
       <c r="A139" s="9" t="s">
         <v>314</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.95">
+    <row r="140" spans="1:20" ht="15.6">
       <c r="A140" s="9" t="s">
         <v>316</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.95">
+    <row r="141" spans="1:20" ht="15.6">
       <c r="A141" s="9" t="s">
         <v>318</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.95">
+    <row r="142" spans="1:20" ht="15.6">
       <c r="A142" s="9" t="s">
         <v>320</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.95">
+    <row r="143" spans="1:20" ht="15.6">
       <c r="A143" s="9" t="s">
         <v>322</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.95">
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="9" t="s">
         <v>324</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.95">
+    <row r="145" spans="1:20" ht="15.6">
       <c r="A145" s="9" t="s">
         <v>326</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.95">
+    <row r="146" spans="1:20" ht="15.6">
       <c r="A146" s="9" t="s">
         <v>328</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.95">
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="9" t="s">
         <v>330</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.95">
+    <row r="148" spans="1:20" ht="15.6">
       <c r="A148" s="9" t="s">
         <v>332</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.95">
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="9" t="s">
         <v>334</v>
       </c>
@@ -5424,16 +5428,16 @@
         <v>2019</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S149" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T149" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.95">
+    <row r="150" spans="1:20" ht="15.6">
       <c r="A150" s="9" t="s">
         <v>336</v>
       </c>
@@ -5444,16 +5448,16 @@
         <v>2019</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S150" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T150" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.95">
+    <row r="151" spans="1:20" ht="15.6">
       <c r="A151" s="9" t="s">
         <v>338</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.95">
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="9" t="s">
         <v>340</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15.95">
+    <row r="153" spans="1:20" ht="15.6">
       <c r="A153" s="9" t="s">
         <v>342</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15.95">
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="9" t="s">
         <v>344</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.95">
+    <row r="155" spans="1:20" ht="15.6">
       <c r="A155" s="9" t="s">
         <v>346</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.95">
+    <row r="156" spans="1:20" ht="15.6">
       <c r="A156" s="9" t="s">
         <v>348</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15.95">
+    <row r="157" spans="1:20" ht="15.6">
       <c r="A157" s="9" t="s">
         <v>350</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.95">
+    <row r="158" spans="1:20" ht="15.6">
       <c r="A158" s="9" t="s">
         <v>352</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15.95">
+    <row r="159" spans="1:20" ht="15.6">
       <c r="A159" s="9" t="s">
         <v>354</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15.95">
+    <row r="160" spans="1:20" ht="15.6">
       <c r="A160" s="9" t="s">
         <v>356</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15.95">
+    <row r="161" spans="1:20" ht="15.6">
       <c r="A161" s="9" t="s">
         <v>358</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15.95">
+    <row r="162" spans="1:20" ht="15.6">
       <c r="A162" s="9" t="s">
         <v>360</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15.95">
+    <row r="163" spans="1:20" ht="15.6">
       <c r="A163" s="9" t="s">
         <v>362</v>
       </c>
@@ -5704,16 +5708,16 @@
         <v>2019</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S163" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T163" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.95">
+    <row r="164" spans="1:20" ht="15.6">
       <c r="A164" s="9" t="s">
         <v>364</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.95">
+    <row r="165" spans="1:20" ht="15.6">
       <c r="A165" s="9" t="s">
         <v>366</v>
       </c>
@@ -5744,16 +5748,16 @@
         <v>2019</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S165" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T165" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15.95">
+    <row r="166" spans="1:20" ht="15.6">
       <c r="A166" s="9" t="s">
         <v>368</v>
       </c>
@@ -5764,16 +5768,16 @@
         <v>2019</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S166" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T166" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15.95">
+    <row r="167" spans="1:20" ht="15.6">
       <c r="A167" s="9" t="s">
         <v>370</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15.95">
+    <row r="168" spans="1:20" ht="15.6">
       <c r="A168" s="9" t="s">
         <v>372</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.95">
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="9" t="s">
         <v>374</v>
       </c>
@@ -5824,16 +5828,16 @@
         <v>2019</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="S169" s="18" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="T169" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15.95">
+    <row r="170" spans="1:20" ht="15.6">
       <c r="A170" s="9" t="s">
         <v>376</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15.95">
+    <row r="171" spans="1:20" ht="15.6">
       <c r="A171" s="9" t="s">
         <v>378</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15.95">
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="9" t="s">
         <v>380</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15.95">
+    <row r="173" spans="1:20" ht="15.6">
       <c r="A173" s="9" t="s">
         <v>382</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.95">
+    <row r="174" spans="1:20" ht="15.6">
       <c r="A174" s="9" t="s">
         <v>384</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.95">
+    <row r="175" spans="1:20" ht="15.6">
       <c r="A175" s="9" t="s">
         <v>386</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15.95">
+    <row r="176" spans="1:20" ht="15.6">
       <c r="A176" s="9" t="s">
         <v>388</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15.95">
+    <row r="177" spans="1:20" ht="15.6">
       <c r="A177" s="9" t="s">
         <v>390</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15.95">
+    <row r="178" spans="1:20" ht="15.6">
       <c r="A178" s="9" t="s">
         <v>392</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.95">
+    <row r="179" spans="1:20" ht="15.6">
       <c r="A179" s="9" t="s">
         <v>394</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15.95">
+    <row r="180" spans="1:20" ht="15.6">
       <c r="A180" s="9" t="s">
         <v>396</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15.95">
+    <row r="181" spans="1:20" ht="15.6">
       <c r="A181" s="9" t="s">
         <v>398</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15.95">
+    <row r="182" spans="1:20" ht="15.6">
       <c r="A182" s="9" t="s">
         <v>400</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15.95">
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="9" t="s">
         <v>402</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15.95">
+    <row r="184" spans="1:20" ht="15.6">
       <c r="A184" s="9" t="s">
         <v>404</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15.95">
+    <row r="185" spans="1:20" ht="15.6">
       <c r="A185" s="9" t="s">
         <v>406</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15.95">
+    <row r="186" spans="1:20" ht="15.6">
       <c r="A186" s="9" t="s">
         <v>408</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15.95">
+    <row r="187" spans="1:20" ht="15.6">
       <c r="A187" s="9" t="s">
         <v>410</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15.95">
+    <row r="188" spans="1:20" ht="15.6">
       <c r="A188" s="9" t="s">
         <v>412</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15.95">
+    <row r="189" spans="1:20" ht="15.6">
       <c r="A189" s="9" t="s">
         <v>414</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15.95">
+    <row r="190" spans="1:20" ht="15.6">
       <c r="A190" s="9" t="s">
         <v>416</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15.95">
+    <row r="191" spans="1:20" ht="15.6">
       <c r="A191" s="9" t="s">
         <v>418</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15.95">
+    <row r="192" spans="1:20" ht="15.6">
       <c r="A192" s="9" t="s">
         <v>420</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.95">
+    <row r="193" spans="1:20" ht="15.6">
       <c r="A193" s="9" t="s">
         <v>422</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.95">
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="9" t="s">
         <v>424</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15.95">
+    <row r="195" spans="1:20" ht="15.6">
       <c r="A195" s="9" t="s">
         <v>426</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15.95">
+    <row r="196" spans="1:20" ht="15.6">
       <c r="A196" s="9" t="s">
         <v>428</v>
       </c>
@@ -6374,6 +6378,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ196" xr:uid="{98A8E976-E1D2-4CF4-947F-A4CC7C962204}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6387,21 +6392,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13977,11 +13982,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14476,21 +14481,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.1">
+    <row r="1" spans="1:8" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>569</v>
       </c>
@@ -14502,20 +14507,20 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105">
+    <row r="2" spans="1:8" ht="100.8">
       <c r="B2" s="12" t="s">
         <v>572</v>
       </c>
       <c r="C2"/>
       <c r="E2" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14545,7 +14550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.95">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -14596,7 +14601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.95">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -14613,7 +14618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.95">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="C10" t="s">
         <v>50</v>
       </c>
@@ -14630,7 +14635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.95">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="C11" t="s">
         <v>52</v>
       </c>
@@ -14664,7 +14669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.95">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="C13" t="s">
         <v>56</v>
       </c>
@@ -14681,7 +14686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.95">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -14732,7 +14737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="15.95">
+    <row r="17" spans="3:7" ht="15.6">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -14749,7 +14754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="15.95">
+    <row r="18" spans="3:7" ht="15.6">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -14817,7 +14822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="15.95">
+    <row r="22" spans="3:7" ht="15.6">
       <c r="C22" t="s">
         <v>74</v>
       </c>
@@ -14834,7 +14839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="15.95">
+    <row r="23" spans="3:7" ht="15.6">
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -14851,7 +14856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="15.95">
+    <row r="24" spans="3:7" ht="15.6">
       <c r="C24" t="s">
         <v>78</v>
       </c>
@@ -14885,7 +14890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="15.95">
+    <row r="26" spans="3:7" ht="15.6">
       <c r="C26" t="s">
         <v>82</v>
       </c>
@@ -14919,7 +14924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="15.95">
+    <row r="28" spans="3:7" ht="15.6">
       <c r="C28" t="s">
         <v>86</v>
       </c>
@@ -14936,7 +14941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="15.95">
+    <row r="29" spans="3:7" ht="15.6">
       <c r="C29" t="s">
         <v>88</v>
       </c>
@@ -14953,7 +14958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="15.95">
+    <row r="30" spans="3:7" ht="15.6">
       <c r="C30" t="s">
         <v>90</v>
       </c>
@@ -14970,7 +14975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="15.95">
+    <row r="31" spans="3:7" ht="15.6">
       <c r="C31" t="s">
         <v>92</v>
       </c>
@@ -14987,7 +14992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="15.95">
+    <row r="32" spans="3:7" ht="15.6">
       <c r="C32" t="s">
         <v>94</v>
       </c>
@@ -15004,7 +15009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="15.95">
+    <row r="33" spans="3:7" ht="15.6">
       <c r="C33" t="s">
         <v>96</v>
       </c>
@@ -15021,7 +15026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="15.95">
+    <row r="34" spans="3:7" ht="15.6">
       <c r="C34" t="s">
         <v>98</v>
       </c>
@@ -15038,7 +15043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="15.95">
+    <row r="35" spans="3:7" ht="15.6">
       <c r="C35" t="s">
         <v>100</v>
       </c>
@@ -15055,7 +15060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="15.95">
+    <row r="36" spans="3:7" ht="15.6">
       <c r="C36" t="s">
         <v>102</v>
       </c>
@@ -15072,7 +15077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="15.95">
+    <row r="37" spans="3:7" ht="15.6">
       <c r="C37" t="s">
         <v>104</v>
       </c>
@@ -15089,7 +15094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="15.95">
+    <row r="38" spans="3:7" ht="15.6">
       <c r="C38" t="s">
         <v>106</v>
       </c>
@@ -15106,7 +15111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="15.95">
+    <row r="39" spans="3:7" ht="15.6">
       <c r="C39" t="s">
         <v>108</v>
       </c>
@@ -15123,7 +15128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="15.95">
+    <row r="40" spans="3:7" ht="15.6">
       <c r="C40" t="s">
         <v>110</v>
       </c>
@@ -15140,7 +15145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="15.95">
+    <row r="41" spans="3:7" ht="15.6">
       <c r="C41" t="s">
         <v>112</v>
       </c>
@@ -15157,7 +15162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="15.95">
+    <row r="42" spans="3:7" ht="15.6">
       <c r="C42" t="s">
         <v>114</v>
       </c>
@@ -15174,7 +15179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="15.95">
+    <row r="43" spans="3:7" ht="15.6">
       <c r="C43" t="s">
         <v>116</v>
       </c>
@@ -15191,7 +15196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="15.95">
+    <row r="44" spans="3:7" ht="15.6">
       <c r="C44" t="s">
         <v>118</v>
       </c>
@@ -15208,7 +15213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="15.95">
+    <row r="45" spans="3:7" ht="15.6">
       <c r="C45" t="s">
         <v>120</v>
       </c>
@@ -15225,7 +15230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="15.95">
+    <row r="46" spans="3:7" ht="15.6">
       <c r="C46" t="s">
         <v>122</v>
       </c>
@@ -15242,7 +15247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="15.95">
+    <row r="47" spans="3:7" ht="15.6">
       <c r="C47" t="s">
         <v>124</v>
       </c>
@@ -15259,7 +15264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="15.95">
+    <row r="48" spans="3:7" ht="15.6">
       <c r="C48" t="s">
         <v>126</v>
       </c>
@@ -15293,7 +15298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="15.95">
+    <row r="50" spans="3:7" ht="15.6">
       <c r="C50" t="s">
         <v>130</v>
       </c>
@@ -15310,7 +15315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="15.95">
+    <row r="51" spans="3:7" ht="15.6">
       <c r="C51" t="s">
         <v>132</v>
       </c>
@@ -15327,7 +15332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="15.95">
+    <row r="52" spans="3:7" ht="15.6">
       <c r="C52" t="s">
         <v>134</v>
       </c>
@@ -15361,7 +15366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="15.95">
+    <row r="54" spans="3:7" ht="15.6">
       <c r="C54" t="s">
         <v>138</v>
       </c>
@@ -15378,7 +15383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="15.95">
+    <row r="55" spans="3:7" ht="15.6">
       <c r="C55" t="s">
         <v>140</v>
       </c>
@@ -15395,7 +15400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="15.95">
+    <row r="56" spans="3:7" ht="15.6">
       <c r="C56" t="s">
         <v>142</v>
       </c>
@@ -15412,7 +15417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="3:7" ht="15.95">
+    <row r="57" spans="3:7" ht="15.6">
       <c r="C57" t="s">
         <v>144</v>
       </c>
@@ -15429,7 +15434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="3:7" ht="15.95">
+    <row r="58" spans="3:7" ht="15.6">
       <c r="C58" t="s">
         <v>146</v>
       </c>
@@ -15446,7 +15451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="3:7" ht="15.95">
+    <row r="59" spans="3:7" ht="15.6">
       <c r="C59" t="s">
         <v>148</v>
       </c>
@@ -15463,7 +15468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="3:7" ht="15.95">
+    <row r="60" spans="3:7" ht="15.6">
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -15480,7 +15485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="3:7" ht="15.95">
+    <row r="61" spans="3:7" ht="15.6">
       <c r="C61" t="s">
         <v>152</v>
       </c>
@@ -15497,7 +15502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="3:7" ht="15.95">
+    <row r="62" spans="3:7" ht="15.6">
       <c r="C62" t="s">
         <v>154</v>
       </c>
@@ -15514,7 +15519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="3:7" ht="15.95">
+    <row r="63" spans="3:7" ht="15.6">
       <c r="C63" t="s">
         <v>156</v>
       </c>
@@ -15531,7 +15536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="3:7" ht="15.95">
+    <row r="64" spans="3:7" ht="15.6">
       <c r="C64" t="s">
         <v>158</v>
       </c>
@@ -15548,7 +15553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="3:7" ht="15.95">
+    <row r="65" spans="3:7" ht="15.6">
       <c r="C65" t="s">
         <v>160</v>
       </c>
@@ -15565,7 +15570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="15.95">
+    <row r="66" spans="3:7" ht="15.6">
       <c r="C66" t="s">
         <v>162</v>
       </c>
@@ -15582,7 +15587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="3:7" ht="15.95">
+    <row r="67" spans="3:7" ht="15.6">
       <c r="C67" t="s">
         <v>164</v>
       </c>
@@ -15599,7 +15604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="15.95">
+    <row r="68" spans="3:7" ht="15.6">
       <c r="C68" t="s">
         <v>166</v>
       </c>
@@ -15616,7 +15621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="15.95">
+    <row r="69" spans="3:7" ht="15.6">
       <c r="C69" t="s">
         <v>168</v>
       </c>
@@ -15633,7 +15638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="15.95">
+    <row r="70" spans="3:7" ht="15.6">
       <c r="C70" t="s">
         <v>170</v>
       </c>
@@ -15650,7 +15655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="15.95">
+    <row r="71" spans="3:7" ht="15.6">
       <c r="C71" t="s">
         <v>172</v>
       </c>
@@ -15684,7 +15689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="15.95">
+    <row r="73" spans="3:7" ht="15.6">
       <c r="C73" t="s">
         <v>176</v>
       </c>
@@ -15701,7 +15706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="15.95">
+    <row r="74" spans="3:7" ht="15.6">
       <c r="C74" t="s">
         <v>178</v>
       </c>
@@ -15718,7 +15723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="15.95">
+    <row r="75" spans="3:7" ht="15.6">
       <c r="C75" t="s">
         <v>180</v>
       </c>
@@ -15735,7 +15740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="15.95">
+    <row r="76" spans="3:7" ht="15.6">
       <c r="C76" t="s">
         <v>182</v>
       </c>
@@ -15752,7 +15757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="15.95">
+    <row r="77" spans="3:7" ht="15.6">
       <c r="C77" t="s">
         <v>184</v>
       </c>
@@ -15769,7 +15774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="3:7" ht="15.95">
+    <row r="78" spans="3:7" ht="15.6">
       <c r="C78" t="s">
         <v>186</v>
       </c>
@@ -15786,7 +15791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="15.95">
+    <row r="79" spans="3:7" ht="15.6">
       <c r="C79" t="s">
         <v>188</v>
       </c>
@@ -15803,7 +15808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="3:7" ht="15.95">
+    <row r="80" spans="3:7" ht="15.6">
       <c r="C80" t="s">
         <v>190</v>
       </c>
@@ -15820,7 +15825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="3:7" ht="15.95">
+    <row r="81" spans="3:7" ht="15.6">
       <c r="C81" t="s">
         <v>192</v>
       </c>
@@ -15837,7 +15842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="3:7" ht="15.95">
+    <row r="82" spans="3:7" ht="15.6">
       <c r="C82" t="s">
         <v>194</v>
       </c>
@@ -15854,7 +15859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="3:7" ht="15.95">
+    <row r="83" spans="3:7" ht="15.6">
       <c r="C83" t="s">
         <v>196</v>
       </c>
@@ -15871,7 +15876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="3:7" ht="15.95">
+    <row r="84" spans="3:7" ht="15.6">
       <c r="C84" t="s">
         <v>198</v>
       </c>
@@ -15888,7 +15893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="3:7" ht="15.95">
+    <row r="85" spans="3:7" ht="15.6">
       <c r="C85" t="s">
         <v>200</v>
       </c>
@@ -15922,7 +15927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="3:7" ht="15.95">
+    <row r="87" spans="3:7" ht="15.6">
       <c r="C87" t="s">
         <v>204</v>
       </c>
@@ -15939,7 +15944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="3:7" ht="15.95">
+    <row r="88" spans="3:7" ht="15.6">
       <c r="C88" t="s">
         <v>206</v>
       </c>
@@ -15956,7 +15961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="3:7" ht="15.95">
+    <row r="89" spans="3:7" ht="15.6">
       <c r="C89" t="s">
         <v>208</v>
       </c>
@@ -15973,7 +15978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="3:7" ht="15.95">
+    <row r="90" spans="3:7" ht="15.6">
       <c r="C90" t="s">
         <v>210</v>
       </c>
@@ -15990,7 +15995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="3:7" ht="15.95">
+    <row r="91" spans="3:7" ht="15.6">
       <c r="C91" t="s">
         <v>212</v>
       </c>
@@ -16007,7 +16012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="3:7" ht="15.95">
+    <row r="92" spans="3:7" ht="15.6">
       <c r="C92" t="s">
         <v>214</v>
       </c>
@@ -16024,7 +16029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="3:7" ht="15.95">
+    <row r="93" spans="3:7" ht="15.6">
       <c r="C93" t="s">
         <v>216</v>
       </c>
@@ -16041,7 +16046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="3:7" ht="15.95">
+    <row r="94" spans="3:7" ht="15.6">
       <c r="C94" t="s">
         <v>218</v>
       </c>
@@ -16058,7 +16063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="3:7" ht="15.95">
+    <row r="95" spans="3:7" ht="15.6">
       <c r="C95" t="s">
         <v>220</v>
       </c>
@@ -16092,7 +16097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="3:7" ht="15.95">
+    <row r="97" spans="3:7" ht="15.6">
       <c r="C97" t="s">
         <v>224</v>
       </c>
@@ -16109,7 +16114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="3:7" ht="15.95">
+    <row r="98" spans="3:7" ht="15.6">
       <c r="C98" t="s">
         <v>226</v>
       </c>
@@ -16126,7 +16131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="3:7" ht="15.95">
+    <row r="99" spans="3:7" ht="15.6">
       <c r="C99" t="s">
         <v>228</v>
       </c>
@@ -16143,7 +16148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="3:7" ht="15.95">
+    <row r="100" spans="3:7" ht="15.6">
       <c r="C100" t="s">
         <v>230</v>
       </c>
@@ -16160,7 +16165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="3:7" ht="15.95">
+    <row r="101" spans="3:7" ht="15.6">
       <c r="C101" t="s">
         <v>232</v>
       </c>
@@ -16177,7 +16182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="3:7" ht="15.95">
+    <row r="102" spans="3:7" ht="15.6">
       <c r="C102" t="s">
         <v>234</v>
       </c>
@@ -16194,7 +16199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="3:7" ht="15.95">
+    <row r="103" spans="3:7" ht="15.6">
       <c r="C103" t="s">
         <v>236</v>
       </c>
@@ -16211,7 +16216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="3:7" ht="15.95">
+    <row r="104" spans="3:7" ht="15.6">
       <c r="C104" t="s">
         <v>238</v>
       </c>
@@ -16228,7 +16233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="3:7" ht="15.95">
+    <row r="105" spans="3:7" ht="15.6">
       <c r="C105" t="s">
         <v>240</v>
       </c>
@@ -16245,7 +16250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="3:7" ht="15.95">
+    <row r="106" spans="3:7" ht="15.6">
       <c r="C106" t="s">
         <v>242</v>
       </c>
@@ -16262,7 +16267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="3:7" ht="15.95">
+    <row r="107" spans="3:7" ht="15.6">
       <c r="C107" t="s">
         <v>244</v>
       </c>
@@ -16279,7 +16284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="3:7" ht="15.95">
+    <row r="108" spans="3:7" ht="15.6">
       <c r="C108" t="s">
         <v>246</v>
       </c>
@@ -16296,7 +16301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="3:7" ht="15.95">
+    <row r="109" spans="3:7" ht="15.6">
       <c r="C109" t="s">
         <v>248</v>
       </c>
@@ -16313,7 +16318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="3:7" ht="15.95">
+    <row r="110" spans="3:7" ht="15.6">
       <c r="C110" t="s">
         <v>250</v>
       </c>
@@ -16330,7 +16335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="3:7" ht="15.95">
+    <row r="111" spans="3:7" ht="15.6">
       <c r="C111" t="s">
         <v>252</v>
       </c>
@@ -16347,7 +16352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="3:7" ht="15.95">
+    <row r="112" spans="3:7" ht="15.6">
       <c r="C112" t="s">
         <v>254</v>
       </c>
@@ -16364,7 +16369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="3:7" ht="15.95">
+    <row r="113" spans="3:7" ht="15.6">
       <c r="C113" t="s">
         <v>256</v>
       </c>
@@ -16381,7 +16386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="3:7" ht="15.95">
+    <row r="114" spans="3:7" ht="15.6">
       <c r="C114" t="s">
         <v>258</v>
       </c>
@@ -16398,7 +16403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="3:7" ht="15.95">
+    <row r="115" spans="3:7" ht="15.6">
       <c r="C115" t="s">
         <v>260</v>
       </c>
@@ -16415,7 +16420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="3:7" ht="15.95">
+    <row r="116" spans="3:7" ht="15.6">
       <c r="C116" t="s">
         <v>262</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="3:7" ht="15.95">
+    <row r="117" spans="3:7" ht="15.6">
       <c r="C117" t="s">
         <v>264</v>
       </c>
@@ -16449,7 +16454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="3:7" ht="15.95">
+    <row r="118" spans="3:7" ht="15.6">
       <c r="C118" t="s">
         <v>266</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="3:7" ht="15.95">
+    <row r="119" spans="3:7" ht="15.6">
       <c r="C119" t="s">
         <v>268</v>
       </c>
@@ -16483,7 +16488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="3:7" ht="15.95">
+    <row r="120" spans="3:7" ht="15.6">
       <c r="C120" t="s">
         <v>270</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="3:7" ht="15.95">
+    <row r="122" spans="3:7" ht="15.6">
       <c r="C122" t="s">
         <v>274</v>
       </c>
@@ -16534,7 +16539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="3:7" ht="15.95">
+    <row r="123" spans="3:7" ht="15.6">
       <c r="C123" t="s">
         <v>276</v>
       </c>
@@ -16551,7 +16556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="3:7" ht="15.95">
+    <row r="124" spans="3:7" ht="15.6">
       <c r="C124" t="s">
         <v>278</v>
       </c>
@@ -16568,7 +16573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="3:7" ht="15.95">
+    <row r="125" spans="3:7" ht="15.6">
       <c r="C125" t="s">
         <v>280</v>
       </c>
@@ -16585,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="3:7" ht="15.95">
+    <row r="126" spans="3:7" ht="15.6">
       <c r="C126" t="s">
         <v>282</v>
       </c>
@@ -16602,7 +16607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="3:7" ht="15.95">
+    <row r="127" spans="3:7" ht="15.6">
       <c r="C127" t="s">
         <v>284</v>
       </c>
@@ -16636,7 +16641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="3:7" ht="15.95">
+    <row r="129" spans="3:7" ht="15.6">
       <c r="C129" t="s">
         <v>288</v>
       </c>
@@ -16653,7 +16658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="3:7" ht="15.95">
+    <row r="130" spans="3:7" ht="15.6">
       <c r="C130" t="s">
         <v>290</v>
       </c>
@@ -16670,7 +16675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="3:7" ht="15.95">
+    <row r="131" spans="3:7" ht="15.6">
       <c r="C131" t="s">
         <v>292</v>
       </c>
@@ -16687,7 +16692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="3:7" ht="15.95">
+    <row r="132" spans="3:7" ht="15.6">
       <c r="C132" t="s">
         <v>294</v>
       </c>
@@ -16704,7 +16709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="3:7" ht="15.95">
+    <row r="133" spans="3:7" ht="15.6">
       <c r="C133" t="s">
         <v>296</v>
       </c>
@@ -16721,7 +16726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="3:7" ht="15.95">
+    <row r="134" spans="3:7" ht="15.6">
       <c r="C134" t="s">
         <v>298</v>
       </c>
@@ -16738,7 +16743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="3:7" ht="15.95">
+    <row r="135" spans="3:7" ht="15.6">
       <c r="C135" t="s">
         <v>300</v>
       </c>
@@ -16755,7 +16760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="3:7" ht="15.95">
+    <row r="136" spans="3:7" ht="15.6">
       <c r="C136" t="s">
         <v>303</v>
       </c>
@@ -16772,7 +16777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="3:7" ht="15.95">
+    <row r="137" spans="3:7" ht="15.6">
       <c r="C137" t="s">
         <v>305</v>
       </c>
@@ -16789,7 +16794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="3:7" ht="15.95">
+    <row r="138" spans="3:7" ht="15.6">
       <c r="C138" t="s">
         <v>307</v>
       </c>
@@ -16823,7 +16828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="3:7" ht="15.95">
+    <row r="140" spans="3:7" ht="15.6">
       <c r="C140" t="s">
         <v>311</v>
       </c>
@@ -16840,7 +16845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="3:7" ht="15.95">
+    <row r="141" spans="3:7" ht="15.6">
       <c r="C141" t="s">
         <v>313</v>
       </c>
@@ -16857,7 +16862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="3:7" ht="15.95">
+    <row r="142" spans="3:7" ht="15.6">
       <c r="C142" t="s">
         <v>315</v>
       </c>
@@ -16874,7 +16879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="3:7" ht="15.95">
+    <row r="143" spans="3:7" ht="15.6">
       <c r="C143" t="s">
         <v>317</v>
       </c>
@@ -16891,7 +16896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="3:7" ht="15.95">
+    <row r="144" spans="3:7" ht="15.6">
       <c r="C144" t="s">
         <v>319</v>
       </c>
@@ -16908,7 +16913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="3:7" ht="15.95">
+    <row r="145" spans="3:7" ht="15.6">
       <c r="C145" t="s">
         <v>321</v>
       </c>
@@ -16925,7 +16930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="3:7" ht="15.95">
+    <row r="146" spans="3:7" ht="15.6">
       <c r="C146" t="s">
         <v>323</v>
       </c>
@@ -16942,7 +16947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="3:7" ht="15.95">
+    <row r="147" spans="3:7" ht="15.6">
       <c r="C147" t="s">
         <v>325</v>
       </c>
@@ -16959,7 +16964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="3:7" ht="15.95">
+    <row r="148" spans="3:7" ht="15.6">
       <c r="C148" t="s">
         <v>327</v>
       </c>
@@ -16976,7 +16981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="3:7" ht="15.95">
+    <row r="149" spans="3:7" ht="15.6">
       <c r="C149" t="s">
         <v>329</v>
       </c>
@@ -16993,7 +16998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="3:7" ht="15.95">
+    <row r="150" spans="3:7" ht="15.6">
       <c r="C150" t="s">
         <v>331</v>
       </c>
@@ -17010,7 +17015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="3:7" ht="15.95">
+    <row r="151" spans="3:7" ht="15.6">
       <c r="C151" t="s">
         <v>333</v>
       </c>
@@ -17061,7 +17066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="3:7" ht="15.95">
+    <row r="154" spans="3:7" ht="15.6">
       <c r="C154" t="s">
         <v>339</v>
       </c>
@@ -17078,7 +17083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="3:7" ht="15.95">
+    <row r="155" spans="3:7" ht="15.6">
       <c r="C155" t="s">
         <v>341</v>
       </c>
@@ -17095,7 +17100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="3:7" ht="15.95">
+    <row r="156" spans="3:7" ht="15.6">
       <c r="C156" t="s">
         <v>343</v>
       </c>
@@ -17112,7 +17117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="3:7" ht="15.95">
+    <row r="157" spans="3:7" ht="15.6">
       <c r="C157" t="s">
         <v>345</v>
       </c>
@@ -17129,7 +17134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="3:7" ht="15.95">
+    <row r="158" spans="3:7" ht="15.6">
       <c r="C158" t="s">
         <v>347</v>
       </c>
@@ -17146,7 +17151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="3:7" ht="15.95">
+    <row r="159" spans="3:7" ht="15.6">
       <c r="C159" t="s">
         <v>349</v>
       </c>
@@ -17163,7 +17168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="3:7" ht="15.95">
+    <row r="160" spans="3:7" ht="15.6">
       <c r="C160" t="s">
         <v>351</v>
       </c>
@@ -17180,7 +17185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="2:7" ht="15.95">
+    <row r="161" spans="2:7" ht="15.6">
       <c r="C161" t="s">
         <v>353</v>
       </c>
@@ -17197,7 +17202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="2:7" ht="15.95">
+    <row r="162" spans="2:7" ht="15.6">
       <c r="C162" t="s">
         <v>355</v>
       </c>
@@ -17214,7 +17219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="2:7" ht="15.95">
+    <row r="163" spans="2:7" ht="15.6">
       <c r="C163" t="s">
         <v>357</v>
       </c>
@@ -17231,7 +17236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="2:7" ht="15.95">
+    <row r="164" spans="2:7" ht="15.6">
       <c r="C164" t="s">
         <v>359</v>
       </c>
@@ -17248,7 +17253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="2:7" ht="15.95">
+    <row r="165" spans="2:7" ht="15.6">
       <c r="C165" t="s">
         <v>361</v>
       </c>
@@ -17282,7 +17287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="15.95">
+    <row r="167" spans="2:7" ht="15.6">
       <c r="C167" t="s">
         <v>365</v>
       </c>
@@ -17333,7 +17338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="2:7" ht="15.95">
+    <row r="170" spans="2:7" ht="15.6">
       <c r="B170" s="14"/>
       <c r="C170" t="s">
         <v>371</v>
@@ -17351,7 +17356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="2:7" ht="15.95">
+    <row r="171" spans="2:7" ht="15.6">
       <c r="C171" t="s">
         <v>373</v>
       </c>
@@ -17402,7 +17407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="2:7" ht="15.95">
+    <row r="174" spans="2:7" ht="15.6">
       <c r="C174" t="s">
         <v>379</v>
       </c>
@@ -17419,7 +17424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="2:7" ht="15.95">
+    <row r="175" spans="2:7" ht="15.6">
       <c r="C175" t="s">
         <v>381</v>
       </c>
@@ -17436,7 +17441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="2:7" ht="15.95">
+    <row r="176" spans="2:7" ht="15.6">
       <c r="C176" t="s">
         <v>383</v>
       </c>
@@ -17453,7 +17458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="3:7" ht="15.95">
+    <row r="177" spans="3:7" ht="15.6">
       <c r="C177" t="s">
         <v>385</v>
       </c>
@@ -17470,7 +17475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="3:7" ht="15.95">
+    <row r="178" spans="3:7" ht="15.6">
       <c r="C178" t="s">
         <v>387</v>
       </c>
@@ -17487,7 +17492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="3:7" ht="15.95">
+    <row r="179" spans="3:7" ht="15.6">
       <c r="C179" t="s">
         <v>389</v>
       </c>
@@ -17504,7 +17509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="3:7" ht="15.95">
+    <row r="180" spans="3:7" ht="15.6">
       <c r="C180" t="s">
         <v>391</v>
       </c>
@@ -17521,7 +17526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="3:7" ht="15.95">
+    <row r="181" spans="3:7" ht="15.6">
       <c r="C181" t="s">
         <v>393</v>
       </c>
@@ -17538,7 +17543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="3:7" ht="15.95">
+    <row r="182" spans="3:7" ht="15.6">
       <c r="C182" t="s">
         <v>395</v>
       </c>
@@ -17555,7 +17560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="3:7" ht="15.95">
+    <row r="183" spans="3:7" ht="15.6">
       <c r="C183" t="s">
         <v>397</v>
       </c>
@@ -17572,7 +17577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="3:7" ht="15.95">
+    <row r="184" spans="3:7" ht="15.6">
       <c r="C184" t="s">
         <v>399</v>
       </c>
@@ -17589,7 +17594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="3:7" ht="15.95">
+    <row r="185" spans="3:7" ht="15.6">
       <c r="C185" t="s">
         <v>401</v>
       </c>
@@ -17606,7 +17611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="3:7" ht="15.95">
+    <row r="186" spans="3:7" ht="15.6">
       <c r="C186" t="s">
         <v>403</v>
       </c>
@@ -17623,7 +17628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="3:7" ht="15.95">
+    <row r="187" spans="3:7" ht="15.6">
       <c r="C187" t="s">
         <v>405</v>
       </c>
@@ -17657,7 +17662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="3:7" ht="15.95">
+    <row r="189" spans="3:7" ht="15.6">
       <c r="C189" t="s">
         <v>409</v>
       </c>
@@ -17674,7 +17679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="3:7" ht="15.95">
+    <row r="190" spans="3:7" ht="15.6">
       <c r="C190" t="s">
         <v>411</v>
       </c>
@@ -17691,7 +17696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="3:7" ht="15.95">
+    <row r="191" spans="3:7" ht="15.6">
       <c r="C191" t="s">
         <v>413</v>
       </c>
@@ -17708,7 +17713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="3:7" ht="15.95">
+    <row r="192" spans="3:7" ht="15.6">
       <c r="C192" t="s">
         <v>415</v>
       </c>
@@ -17725,7 +17730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="3:7" ht="15.95">
+    <row r="193" spans="3:7" ht="15.6">
       <c r="C193" t="s">
         <v>417</v>
       </c>
@@ -17742,7 +17747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="3:7" ht="15.95">
+    <row r="194" spans="3:7" ht="15.6">
       <c r="C194" t="s">
         <v>419</v>
       </c>
@@ -17759,7 +17764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="3:7" ht="15.95">
+    <row r="195" spans="3:7" ht="15.6">
       <c r="C195" t="s">
         <v>421</v>
       </c>
@@ -17776,7 +17781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="3:7" ht="15.95">
+    <row r="196" spans="3:7" ht="15.6">
       <c r="C196" t="s">
         <v>423</v>
       </c>
@@ -17793,7 +17798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="3:7" ht="15.95">
+    <row r="197" spans="3:7" ht="15.6">
       <c r="C197" t="s">
         <v>425</v>
       </c>
@@ -17810,7 +17815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="3:7" ht="15.95">
+    <row r="198" spans="3:7" ht="15.6">
       <c r="C198" t="s">
         <v>427</v>
       </c>
@@ -17827,7 +17832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="3:7" ht="15.95">
+    <row r="199" spans="3:7" ht="15.6">
       <c r="C199" t="s">
         <v>429</v>
       </c>
@@ -17940,12 +17945,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -18117,6 +18116,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18127,13 +18132,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>